--- a/assets/excel/2021_7-1-1.xlsx
+++ b/assets/excel/2021_7-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018C98F-ABD4-45B2-95F1-399EF974D3F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E31DF8-B395-4CC0-90BC-57E89271DD60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11205" xr2:uid="{AA2F02AC-65ED-4A25-A47E-9D17963E32A8}"/>
   </bookViews>
@@ -67,19 +67,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">m </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="6"/>
-        <rFont val="NDSFrutiger 45 Light"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>Bruttokaltmiete</t>
   </si>
   <si>
@@ -150,6 +137,9 @@
       </rPr>
       <t>3)</t>
     </r>
+  </si>
+  <si>
+    <t>m 2</t>
   </si>
 </sst>
 </file>
@@ -797,7 +787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D194697-F26A-49E3-8F8C-DB62481DF1AC}">
   <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -826,7 +818,7 @@
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -840,7 +832,7 @@
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -894,7 +886,7 @@
       <c r="D7" s="34"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="35"/>
       <c r="H7" s="9" t="s">
@@ -950,7 +942,7 @@
         <v>2018</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E10" s="15">
         <v>53.8</v>
@@ -962,21 +954,21 @@
         <v>42.6</v>
       </c>
       <c r="H10" s="16">
+        <v>36.4</v>
+      </c>
+      <c r="I10" s="16">
         <v>47</v>
-      </c>
-      <c r="I10" s="16">
-        <v>36.4</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="13">
         <v>2018</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="17">
         <v>6.71</v>
@@ -988,10 +980,10 @@
         <v>7.03</v>
       </c>
       <c r="H11" s="17">
+        <v>6.92</v>
+      </c>
+      <c r="I11" s="17">
         <v>7.08</v>
-      </c>
-      <c r="I11" s="17">
-        <v>6.92</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1002,7 +994,7 @@
         <v>2014</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E12" s="15">
         <v>48.7</v>
@@ -1014,21 +1006,21 @@
         <v>35.4</v>
       </c>
       <c r="H12" s="15">
+        <v>29</v>
+      </c>
+      <c r="I12" s="15">
         <v>38.4</v>
-      </c>
-      <c r="I12" s="15">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="19">
         <v>2014</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="20">
         <v>6.32</v>
@@ -1040,10 +1032,10 @@
         <v>6.6</v>
       </c>
       <c r="H13" s="20">
+        <v>6.46</v>
+      </c>
+      <c r="I13" s="20">
         <v>6.66</v>
-      </c>
-      <c r="I13" s="20">
-        <v>6.46</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,7 +1046,7 @@
         <v>2010</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E14" s="15">
         <v>49.110500000000002</v>
@@ -1066,21 +1058,21 @@
         <v>34.685299999999998</v>
       </c>
       <c r="H14" s="21">
+        <v>28.503</v>
+      </c>
+      <c r="I14" s="21">
         <v>37.497799999999998</v>
-      </c>
-      <c r="I14" s="21">
-        <v>28.503</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="18">
         <v>2010</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="20">
         <v>6.0448000000000004</v>
@@ -1092,26 +1084,26 @@
         <v>6.2743000000000002</v>
       </c>
       <c r="H15" s="22">
+        <v>6.1745000000000001</v>
+      </c>
+      <c r="I15" s="22">
         <v>6.3148</v>
-      </c>
-      <c r="I15" s="22">
-        <v>6.1745000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -1143,7 +1135,7 @@
     </row>
     <row r="22" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1151,22 +1143,22 @@
     </row>
     <row r="24" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/2021_7-1-1.xlsx
+++ b/assets/excel/2021_7-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EED664-24F6-4686-8864-7E19C23AE250}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D905E1-81F0-4AB6-8555-0AEB7BFDF7BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{DDC57790-DE7A-428E-A7C2-67BF23616933}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="41">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Tabelle 7.1.1: Paare ohne Kinder und Familien nach Paar-Familientyp und Zuwanderungsgeschichte sowie Familien nach Zahl der Kinder</t>
+  </si>
+  <si>
+    <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Haushalte-Familien/Methoden/mikrozensus-2020.html</t>
+  </si>
+  <si>
+    <t>2) Die Ergebnisse des Mikrozensus 2020 sind unter anderem aufgrund methodischer Effekte im Rahmen einer Neugestaltung der Erhebung sowie insbesondere aufgrund der Folgen der Corona-Pandemie in Ihrer Datenqualität eingeschränkt. Auf die Verwendung dieser Ergebnisse wird daher verzichtet. Weitere Informationen zur methodischen Neugestaltung des Mikrozensus ab 2020 und zu den Auswirkungen der Neugestaltung und der Corona-Krise auf die Ergebnisse des Jahres 2020 finden Sie auf der Informationsseite des Statistischen Bundesamtes:</t>
   </si>
 </sst>
 </file>
@@ -363,11 +369,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -450,6 +457,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,12 +490,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Link 2" xfId="2" xr:uid="{BBB2CD53-08F5-4681-B23A-88148EE1297E}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -799,10 +816,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E776A3E-9AA2-44A9-83ED-D0EE2088F425}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="B1:O264"/>
+  <dimension ref="B1:O266"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A244" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258:J258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,37 +848,37 @@
       </c>
     </row>
     <row r="6" spans="2:14" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
     </row>
     <row r="7" spans="2:14" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="12" t="s">
         <v>19</v>
       </c>
@@ -877,18 +894,18 @@
       <c r="J7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
     </row>
     <row r="8" spans="2:14" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="12" t="s">
         <v>21</v>
       </c>
@@ -904,18 +921,18 @@
       <c r="J8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" spans="2:14" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="B9" s="35"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="12" t="s">
         <v>24</v>
       </c>
@@ -931,18 +948,18 @@
       <c r="J9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="2:14" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="17" t="s">
         <v>4</v>
       </c>
@@ -961,10 +978,10 @@
       <c r="K10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="44">
         <v>1</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="44">
         <v>2</v>
       </c>
       <c r="N10" s="14" t="s">
@@ -972,10 +989,10 @@
       </c>
     </row>
     <row r="11" spans="2:14" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="B11" s="36"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="18" t="s">
         <v>4</v>
       </c>
@@ -994,8 +1011,8 @@
       <c r="K11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
       <c r="N11" s="15" t="s">
         <v>27</v>
       </c>
@@ -11224,47 +11241,76 @@
       <c r="B256" s="5"/>
     </row>
     <row r="257" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="44" t="s">
+      <c r="B257" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C257" s="44"/>
-      <c r="D257" s="44"/>
-      <c r="E257" s="44"/>
-      <c r="F257" s="44"/>
-      <c r="G257" s="44"/>
-      <c r="H257" s="44"/>
-      <c r="I257" s="44"/>
-      <c r="J257" s="44"/>
-    </row>
-    <row r="258" spans="2:10" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="260" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C257" s="34"/>
+      <c r="D257" s="34"/>
+      <c r="E257" s="34"/>
+      <c r="F257" s="34"/>
+      <c r="G257" s="34"/>
+      <c r="H257" s="34"/>
+      <c r="I257" s="34"/>
+      <c r="J257" s="34"/>
+    </row>
+    <row r="258" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C258" s="34"/>
+      <c r="D258" s="34"/>
+      <c r="E258" s="34"/>
+      <c r="F258" s="34"/>
+      <c r="G258" s="34"/>
+      <c r="H258" s="34"/>
+      <c r="I258" s="34"/>
+      <c r="J258" s="34"/>
+    </row>
+    <row r="259" spans="2:10" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C259" s="46"/>
+      <c r="D259" s="46"/>
+      <c r="E259" s="46"/>
+      <c r="F259" s="46"/>
+      <c r="G259" s="46"/>
+      <c r="H259" s="46"/>
+      <c r="I259" s="46"/>
+      <c r="J259" s="47"/>
+    </row>
+    <row r="260" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="6"/>
+    </row>
     <row r="261" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="262" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="263" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="8" t="s">
+    <row r="266" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B266" s="8" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B258:J258"/>
     <mergeCell ref="B257:J257"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="C6:C11"/>
@@ -11278,9 +11324,10 @@
     <mergeCell ref="M10:M11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B264" r:id="rId1" xr:uid="{A8C9ED82-90DB-4FD9-8E8D-BF7FD9B5E3AF}"/>
+    <hyperlink ref="B266" r:id="rId1" xr:uid="{A8C9ED82-90DB-4FD9-8E8D-BF7FD9B5E3AF}"/>
+    <hyperlink ref="B259" r:id="rId2" xr:uid="{2F4127CA-8425-4559-A0B7-538B8DB3610E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>